--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524F28B-F291-44AE-89E5-C8ECA1BEC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB89D9-32D3-464E-B4C9-DCD1F20D004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,17 +755,6 @@
     <t>Sim, #player?</t>
   </si>
   <si>
-    <t>Uh... uh... alguém...</t>
-  </si>
-  <si>
-    <t>Uh... uh... alguém... tem alguém aí?</t>
-  </si>
-  <si>
-    <t>Oh... agradeço à misericordiosa Ehekatl por este encontro._x000D_
-_x000D_
-Eu sou Farris, o contador de histórias de Olvina. Algo incomum está acontecendo em Nymelle, e vim a esta caverna com um grupo de mercenários. Mas, infelizmente, fomos atacados por monstros ferozes.</t>
-  </si>
-  <si>
     <t>Como recitador das tradições de Mysilia, preciso saber o que está acontecendo nesta terra. No entanto, com meu grupo perdido, não tenho escolha a não ser recuar..._x000D_
 _x000D_
 Se desejar seguir em frente, eu lhe darei a chave desta passagem. Por favor, vá e descubra o que está acontecendo nas profundezas de Nymelle.</t>
@@ -1003,6 +992,16 @@
     <t xml:space="preserve">Demitas, o Exilado... me pergunto como ele era antes de se tornar...  _x000D_
 _x000D_
 E o que o levou ao exílio, afinal? Um dia, adoraria ouvir essa história dele mesmo.  </t>
+  </si>
+  <si>
+    <t>Alguém...</t>
+  </si>
+  <si>
+    <t>Uh... Uh... Alguém... Tem alguém aí?</t>
+  </si>
+  <si>
+    <t>Oh... Agradeço à misericordiosa Ehekatl por este encontro.
+Eu sou Farris, o contador de histórias de Olvina. Algo incomum está acontecendo em Nymelle, e vim a esta caverna com um grupo de mercenários. Mas, infelizmente, fomos atacados por monstros ferozes.</t>
   </si>
 </sst>
 </file>
@@ -1327,9 +1326,9 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K148" sqref="K148:K157"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1464,7 +1463,7 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1488,7 +1487,7 @@
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="99">
@@ -1502,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1527,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="115.5">
@@ -1541,7 +1540,7 @@
         <v>36</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1573,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="148.5">
@@ -1587,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="4:11" ht="99">
@@ -1601,7 +1600,7 @@
         <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -1626,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="4:11">
@@ -1660,7 +1659,7 @@
         <v>53</v>
       </c>
       <c r="K37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:11">
@@ -1685,7 +1684,7 @@
         <v>57</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="4:11" ht="115.5">
@@ -1702,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="4:11" ht="148.5">
@@ -1719,7 +1718,7 @@
         <v>61</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="4:11" ht="165">
@@ -1736,7 +1735,7 @@
         <v>63</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="4:11" ht="165">
@@ -1753,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="4:11">
@@ -1783,7 +1782,7 @@
         <v>70</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="4:11" ht="66">
@@ -1797,7 +1796,7 @@
         <v>72</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1913,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="18.75">
@@ -1930,7 +1929,7 @@
         <v>85</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -1944,7 +1943,7 @@
         <v>87</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="18.75">
@@ -1961,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -1975,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -1992,7 +1991,7 @@
         <v>91</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="37.5">
@@ -2006,7 +2005,7 @@
         <v>93</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="6:11" ht="18.75">
@@ -2023,7 +2022,7 @@
         <v>95</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="6:11" ht="18.75">
@@ -2040,7 +2039,7 @@
         <v>97</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="6:11" ht="18.75">
@@ -2057,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="6:11" ht="18.75">
@@ -2074,7 +2073,7 @@
         <v>101</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="6:11" ht="18.75">
@@ -2088,7 +2087,7 @@
         <v>95</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="6:11" ht="18.75">
@@ -2105,7 +2104,7 @@
         <v>95</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="6:11" ht="30">
@@ -2119,7 +2118,7 @@
         <v>103</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="6:11" ht="84">
@@ -2136,7 +2135,7 @@
         <v>105</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="6:11">
@@ -2150,7 +2149,7 @@
         <v>107</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="6:11" ht="43.5">
@@ -2164,7 +2163,7 @@
         <v>109</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="6:11">
@@ -2181,7 +2180,7 @@
         <v>111</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="6:11" ht="57">
@@ -2195,7 +2194,7 @@
         <v>113</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="6:11" ht="57">
@@ -2212,7 +2211,7 @@
         <v>115</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="6:11">
@@ -2232,7 +2231,7 @@
         <v>117</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="6:11" ht="97.5">
@@ -2246,7 +2245,7 @@
         <v>119</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="66">
@@ -2263,7 +2262,7 @@
         <v>121</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -2381,7 +2380,7 @@
         <v>128</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="30">
@@ -2396,7 +2395,7 @@
         <v>130</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -2413,7 +2412,7 @@
         <v>131</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="57">
@@ -2430,7 +2429,7 @@
         <v>133</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="4:11" ht="18.75">
@@ -2460,7 +2459,7 @@
         <v>137</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="4:11" ht="43.5">
@@ -2475,7 +2474,7 @@
         <v>139</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="4:11">
@@ -2492,7 +2491,7 @@
         <v>141</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="4:11">
@@ -2509,7 +2508,7 @@
         <v>143</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="4:11" ht="27.75">
@@ -2526,7 +2525,7 @@
         <v>145</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="4:11">
@@ -2564,7 +2563,7 @@
         <v>149</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="4:11">
@@ -2590,7 +2589,7 @@
         <v>151</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="4:11">
@@ -2607,7 +2606,7 @@
         <v>153</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="4:11">
@@ -2624,7 +2623,7 @@
         <v>155</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="4:11">
@@ -2642,7 +2641,7 @@
         <v>157</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="4:11">
@@ -2659,7 +2658,7 @@
         <v>159</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="4:11" ht="43.5">
@@ -2677,7 +2676,7 @@
         <v>161</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -2695,7 +2694,7 @@
         <v>131</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -2722,7 +2721,7 @@
         <v>163</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -2762,7 +2761,7 @@
         <v>165</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="30">
@@ -2777,7 +2776,7 @@
         <v>167</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="57">
@@ -2792,7 +2791,7 @@
         <v>169</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -2871,7 +2870,7 @@
         <v>85</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="4:11">
@@ -2888,7 +2887,7 @@
         <v>173</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="4:11">
@@ -2902,7 +2901,7 @@
         <v>175</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="4:11">
@@ -2921,7 +2920,7 @@
         <v>177</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="4:11" ht="66">
@@ -2938,7 +2937,7 @@
         <v>179</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="4:11" ht="30">
@@ -2953,7 +2952,7 @@
         <v>181</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="4:11">
@@ -2970,7 +2969,7 @@
         <v>183</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="4:11" ht="78.75">
@@ -2984,7 +2983,7 @@
         <v>185</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="4:11" ht="70.5">
@@ -3001,7 +3000,7 @@
         <v>187</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="4:11" ht="57">
@@ -3015,7 +3014,7 @@
         <v>189</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="4:11">
